--- a/db/load/cdisc/ct/changes/2021-09-24/SDTM Terminology Changes 2021-09-24.xlsx
+++ b/db/load/cdisc/ct/changes/2021-09-24/SDTM Terminology Changes 2021-09-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/changes/2021-09-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F7C758-E49F-F743-B4A3-8DE9CBF2A81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05350633-7B90-B94C-BDE0-3B6A26FE7843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="36600" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21480,8 +21480,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q1138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A766" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O845" sqref="O845"/>
     </sheetView>
   </sheetViews>

--- a/db/load/cdisc/ct/changes/2021-09-24/SDTM Terminology Changes 2021-09-24.xlsx
+++ b/db/load/cdisc/ct/changes/2021-09-24/SDTM Terminology Changes 2021-09-24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/changes/2021-09-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF291198-4879-144F-8CCB-9E3EBFDD2872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6E012D-D091-7B4F-8103-0018F4DD115B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="36600" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39680" yWindow="1160" windowWidth="36600" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SDTM Terminology Changes" sheetId="1" r:id="rId1"/>
@@ -21496,9 +21496,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A951" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L957" sqref="L957"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -51484,7 +51484,7 @@
         <v>2070</v>
       </c>
       <c r="L765" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M765" s="16" t="s">
         <v>2092</v>
@@ -51534,7 +51534,7 @@
         <v>2068</v>
       </c>
       <c r="L766" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M766" s="16" t="s">
         <v>2092</v>
@@ -51584,7 +51584,7 @@
         <v>2068</v>
       </c>
       <c r="L767" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M767" s="16" t="s">
         <v>2092</v>
@@ -51634,7 +51634,7 @@
         <v>2071</v>
       </c>
       <c r="L768" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M768" s="16" t="s">
         <v>2092</v>
@@ -51684,7 +51684,7 @@
         <v>2067</v>
       </c>
       <c r="L769" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M769" s="16" t="s">
         <v>2092</v>
@@ -51734,7 +51734,7 @@
         <v>2067</v>
       </c>
       <c r="L770" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M770" s="16" t="s">
         <v>2092</v>
@@ -51784,7 +51784,7 @@
         <v>2067</v>
       </c>
       <c r="L771" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M771" s="16" t="s">
         <v>2092</v>
@@ -51834,7 +51834,7 @@
         <v>2067</v>
       </c>
       <c r="L772" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M772" s="16" t="s">
         <v>2092</v>
@@ -51884,7 +51884,7 @@
         <v>2067</v>
       </c>
       <c r="L773" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M773" s="16" t="s">
         <v>2092</v>
@@ -51934,7 +51934,7 @@
         <v>2067</v>
       </c>
       <c r="L774" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M774" s="16" t="s">
         <v>2092</v>
@@ -51984,7 +51984,7 @@
         <v>2067</v>
       </c>
       <c r="L775" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M775" s="16" t="s">
         <v>2092</v>
@@ -52034,7 +52034,7 @@
         <v>2067</v>
       </c>
       <c r="L776" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M776" s="16" t="s">
         <v>2092</v>
@@ -52084,7 +52084,7 @@
         <v>2067</v>
       </c>
       <c r="L777" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M777" s="16" t="s">
         <v>2092</v>
@@ -52134,7 +52134,7 @@
         <v>2067</v>
       </c>
       <c r="L778" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M778" s="16" t="s">
         <v>2092</v>
@@ -52184,7 +52184,7 @@
         <v>2067</v>
       </c>
       <c r="L779" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M779" s="16" t="s">
         <v>2092</v>
@@ -52234,7 +52234,7 @@
         <v>2067</v>
       </c>
       <c r="L780" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M780" s="16" t="s">
         <v>2092</v>
@@ -52284,7 +52284,7 @@
         <v>2067</v>
       </c>
       <c r="L781" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M781" s="16" t="s">
         <v>2092</v>
@@ -52334,7 +52334,7 @@
         <v>2067</v>
       </c>
       <c r="L782" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M782" s="16" t="s">
         <v>2092</v>
@@ -52384,7 +52384,7 @@
         <v>2067</v>
       </c>
       <c r="L783" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M783" s="16" t="s">
         <v>2092</v>
@@ -52434,7 +52434,7 @@
         <v>2067</v>
       </c>
       <c r="L784" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M784" s="16" t="s">
         <v>2092</v>
@@ -52484,7 +52484,7 @@
         <v>2067</v>
       </c>
       <c r="L785" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M785" s="16" t="s">
         <v>2092</v>
@@ -52534,7 +52534,7 @@
         <v>2067</v>
       </c>
       <c r="L786" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M786" s="16" t="s">
         <v>2092</v>
@@ -52584,7 +52584,7 @@
         <v>2067</v>
       </c>
       <c r="L787" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M787" s="16" t="s">
         <v>2092</v>
@@ -52634,7 +52634,7 @@
         <v>2067</v>
       </c>
       <c r="L788" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M788" s="16" t="s">
         <v>2092</v>
@@ -52684,7 +52684,7 @@
         <v>2067</v>
       </c>
       <c r="L789" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M789" s="16" t="s">
         <v>2092</v>
@@ -52734,7 +52734,7 @@
         <v>2067</v>
       </c>
       <c r="L790" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M790" s="16" t="s">
         <v>2092</v>
@@ -52784,7 +52784,7 @@
         <v>2067</v>
       </c>
       <c r="L791" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M791" s="16" t="s">
         <v>2092</v>
@@ -52834,7 +52834,7 @@
         <v>2067</v>
       </c>
       <c r="L792" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M792" s="16" t="s">
         <v>2092</v>
@@ -52884,7 +52884,7 @@
         <v>2067</v>
       </c>
       <c r="L793" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M793" s="16" t="s">
         <v>2092</v>
@@ -52934,7 +52934,7 @@
         <v>2067</v>
       </c>
       <c r="L794" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M794" s="16" t="s">
         <v>2092</v>
@@ -52984,7 +52984,7 @@
         <v>2067</v>
       </c>
       <c r="L795" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M795" s="16" t="s">
         <v>2092</v>
@@ -53034,7 +53034,7 @@
         <v>2067</v>
       </c>
       <c r="L796" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M796" s="16" t="s">
         <v>2092</v>
@@ -53084,7 +53084,7 @@
         <v>2067</v>
       </c>
       <c r="L797" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M797" s="16" t="s">
         <v>2092</v>
@@ -53134,7 +53134,7 @@
         <v>2067</v>
       </c>
       <c r="L798" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M798" s="16" t="s">
         <v>2092</v>
@@ -53184,7 +53184,7 @@
         <v>2067</v>
       </c>
       <c r="L799" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M799" s="16" t="s">
         <v>2092</v>
@@ -53234,7 +53234,7 @@
         <v>2067</v>
       </c>
       <c r="L800" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M800" s="16" t="s">
         <v>2092</v>
@@ -53284,7 +53284,7 @@
         <v>2067</v>
       </c>
       <c r="L801" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M801" s="16" t="s">
         <v>2092</v>
@@ -53334,7 +53334,7 @@
         <v>2067</v>
       </c>
       <c r="L802" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M802" s="16" t="s">
         <v>2092</v>
@@ -53384,7 +53384,7 @@
         <v>2067</v>
       </c>
       <c r="L803" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M803" s="16" t="s">
         <v>2092</v>
@@ -53434,7 +53434,7 @@
         <v>2067</v>
       </c>
       <c r="L804" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M804" s="16" t="s">
         <v>2092</v>
@@ -53484,7 +53484,7 @@
         <v>2067</v>
       </c>
       <c r="L805" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M805" s="16" t="s">
         <v>2092</v>
@@ -53534,7 +53534,7 @@
         <v>2067</v>
       </c>
       <c r="L806" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M806" s="16" t="s">
         <v>2092</v>
@@ -53584,7 +53584,7 @@
         <v>2067</v>
       </c>
       <c r="L807" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M807" s="16" t="s">
         <v>2092</v>
@@ -53634,7 +53634,7 @@
         <v>2067</v>
       </c>
       <c r="L808" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M808" s="16" t="s">
         <v>2092</v>
@@ -53684,7 +53684,7 @@
         <v>2067</v>
       </c>
       <c r="L809" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M809" s="16" t="s">
         <v>2092</v>
@@ -53734,7 +53734,7 @@
         <v>2067</v>
       </c>
       <c r="L810" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M810" s="16" t="s">
         <v>2092</v>
@@ -53784,7 +53784,7 @@
         <v>2067</v>
       </c>
       <c r="L811" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M811" s="16" t="s">
         <v>2092</v>
@@ -53834,7 +53834,7 @@
         <v>2067</v>
       </c>
       <c r="L812" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M812" s="16" t="s">
         <v>2092</v>
@@ -53884,7 +53884,7 @@
         <v>2067</v>
       </c>
       <c r="L813" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M813" s="16" t="s">
         <v>2092</v>
@@ -53934,7 +53934,7 @@
         <v>2067</v>
       </c>
       <c r="L814" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M814" s="16" t="s">
         <v>2092</v>
@@ -53984,7 +53984,7 @@
         <v>2067</v>
       </c>
       <c r="L815" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M815" s="16" t="s">
         <v>2092</v>
@@ -54034,7 +54034,7 @@
         <v>2067</v>
       </c>
       <c r="L816" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M816" s="16" t="s">
         <v>2092</v>
@@ -54084,7 +54084,7 @@
         <v>2067</v>
       </c>
       <c r="L817" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M817" s="16" t="s">
         <v>2092</v>
@@ -54134,7 +54134,7 @@
         <v>2067</v>
       </c>
       <c r="L818" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M818" s="16" t="s">
         <v>2092</v>
@@ -54184,7 +54184,7 @@
         <v>2067</v>
       </c>
       <c r="L819" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M819" s="16" t="s">
         <v>2092</v>
@@ -54234,7 +54234,7 @@
         <v>2067</v>
       </c>
       <c r="L820" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M820" s="16" t="s">
         <v>2092</v>
@@ -54284,7 +54284,7 @@
         <v>2067</v>
       </c>
       <c r="L821" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M821" s="16" t="s">
         <v>2092</v>
@@ -54334,7 +54334,7 @@
         <v>2067</v>
       </c>
       <c r="L822" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M822" s="16" t="s">
         <v>2092</v>
@@ -54384,7 +54384,7 @@
         <v>2067</v>
       </c>
       <c r="L823" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M823" s="16" t="s">
         <v>2092</v>
@@ -54434,7 +54434,7 @@
         <v>2067</v>
       </c>
       <c r="L824" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M824" s="16" t="s">
         <v>2092</v>
@@ -54484,7 +54484,7 @@
         <v>2067</v>
       </c>
       <c r="L825" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M825" s="16" t="s">
         <v>2092</v>
@@ -54534,7 +54534,7 @@
         <v>2067</v>
       </c>
       <c r="L826" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M826" s="16" t="s">
         <v>2092</v>
@@ -54584,7 +54584,7 @@
         <v>2067</v>
       </c>
       <c r="L827" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M827" s="16" t="s">
         <v>2092</v>
@@ -54634,7 +54634,7 @@
         <v>2067</v>
       </c>
       <c r="L828" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M828" s="16" t="s">
         <v>2092</v>
@@ -54684,7 +54684,7 @@
         <v>2067</v>
       </c>
       <c r="L829" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M829" s="16" t="s">
         <v>2092</v>
@@ -54734,7 +54734,7 @@
         <v>2067</v>
       </c>
       <c r="L830" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M830" s="16" t="s">
         <v>2092</v>
@@ -54784,7 +54784,7 @@
         <v>2067</v>
       </c>
       <c r="L831" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M831" s="16" t="s">
         <v>2092</v>
@@ -54834,7 +54834,7 @@
         <v>2067</v>
       </c>
       <c r="L832" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M832" s="16" t="s">
         <v>2092</v>
@@ -54884,7 +54884,7 @@
         <v>2067</v>
       </c>
       <c r="L833" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M833" s="16" t="s">
         <v>2092</v>
@@ -54934,7 +54934,7 @@
         <v>2067</v>
       </c>
       <c r="L834" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M834" s="16" t="s">
         <v>2092</v>
@@ -54984,7 +54984,7 @@
         <v>2067</v>
       </c>
       <c r="L835" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M835" s="16" t="s">
         <v>2092</v>
@@ -55034,7 +55034,7 @@
         <v>2067</v>
       </c>
       <c r="L836" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M836" s="16" t="s">
         <v>2092</v>
@@ -55084,7 +55084,7 @@
         <v>2067</v>
       </c>
       <c r="L837" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M837" s="16" t="s">
         <v>2092</v>
@@ -55134,7 +55134,7 @@
         <v>2067</v>
       </c>
       <c r="L838" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M838" s="16" t="s">
         <v>2092</v>
@@ -55184,7 +55184,7 @@
         <v>2067</v>
       </c>
       <c r="L839" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M839" s="16" t="s">
         <v>2092</v>
@@ -55234,7 +55234,7 @@
         <v>2068</v>
       </c>
       <c r="L840" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M840" s="16" t="s">
         <v>2092</v>
@@ -55284,7 +55284,7 @@
         <v>2069</v>
       </c>
       <c r="L841" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M841" s="16" t="s">
         <v>2092</v>
@@ -55463,7 +55463,7 @@
         <v>2060</v>
       </c>
       <c r="L845" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M845" s="16" t="s">
         <v>2090</v>
@@ -55513,7 +55513,7 @@
         <v>2060</v>
       </c>
       <c r="L846" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M846" s="16" t="s">
         <v>2090</v>
@@ -55563,7 +55563,7 @@
         <v>2060</v>
       </c>
       <c r="L847" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M847" s="16" t="s">
         <v>2090</v>
@@ -55613,7 +55613,7 @@
         <v>2060</v>
       </c>
       <c r="L848" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M848" s="16" t="s">
         <v>2090</v>
@@ -55663,7 +55663,7 @@
         <v>2060</v>
       </c>
       <c r="L849" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M849" s="16" t="s">
         <v>2090</v>
@@ -55713,7 +55713,7 @@
         <v>2060</v>
       </c>
       <c r="L850" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M850" s="16" t="s">
         <v>2090</v>
@@ -55763,7 +55763,7 @@
         <v>2060</v>
       </c>
       <c r="L851" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M851" s="16" t="s">
         <v>2090</v>
@@ -55813,7 +55813,7 @@
         <v>2060</v>
       </c>
       <c r="L852" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M852" s="16" t="s">
         <v>2090</v>
@@ -55863,7 +55863,7 @@
         <v>2060</v>
       </c>
       <c r="L853" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M853" s="16" t="s">
         <v>2090</v>
@@ -55913,7 +55913,7 @@
         <v>2060</v>
       </c>
       <c r="L854" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M854" s="16" t="s">
         <v>2090</v>
@@ -55963,7 +55963,7 @@
         <v>2060</v>
       </c>
       <c r="L855" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M855" s="16" t="s">
         <v>2090</v>
@@ -56013,7 +56013,7 @@
         <v>2060</v>
       </c>
       <c r="L856" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M856" s="16" t="s">
         <v>2090</v>
@@ -56063,7 +56063,7 @@
         <v>2060</v>
       </c>
       <c r="L857" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M857" s="16" t="s">
         <v>2090</v>
@@ -56113,7 +56113,7 @@
         <v>2060</v>
       </c>
       <c r="L858" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M858" s="16" t="s">
         <v>2090</v>
@@ -56163,7 +56163,7 @@
         <v>2060</v>
       </c>
       <c r="L859" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M859" s="16" t="s">
         <v>2090</v>
@@ -56213,7 +56213,7 @@
         <v>2060</v>
       </c>
       <c r="L860" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M860" s="16" t="s">
         <v>2090</v>
@@ -56263,7 +56263,7 @@
         <v>2060</v>
       </c>
       <c r="L861" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M861" s="16" t="s">
         <v>2090</v>
@@ -56313,7 +56313,7 @@
         <v>2060</v>
       </c>
       <c r="L862" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M862" s="16" t="s">
         <v>2090</v>
@@ -56363,7 +56363,7 @@
         <v>2060</v>
       </c>
       <c r="L863" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M863" s="16" t="s">
         <v>2090</v>
@@ -56413,7 +56413,7 @@
         <v>2060</v>
       </c>
       <c r="L864" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M864" s="16" t="s">
         <v>2090</v>
@@ -56463,7 +56463,7 @@
         <v>2060</v>
       </c>
       <c r="L865" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M865" s="16" t="s">
         <v>2090</v>
@@ -56513,7 +56513,7 @@
         <v>2060</v>
       </c>
       <c r="L866" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M866" s="16" t="s">
         <v>2090</v>
@@ -56563,7 +56563,7 @@
         <v>2060</v>
       </c>
       <c r="L867" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M867" s="16" t="s">
         <v>2090</v>
@@ -56613,7 +56613,7 @@
         <v>2060</v>
       </c>
       <c r="L868" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M868" s="16" t="s">
         <v>2090</v>
@@ -56663,7 +56663,7 @@
         <v>2060</v>
       </c>
       <c r="L869" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M869" s="16" t="s">
         <v>2090</v>
@@ -56713,7 +56713,7 @@
         <v>2060</v>
       </c>
       <c r="L870" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M870" s="16" t="s">
         <v>2090</v>
@@ -56763,7 +56763,7 @@
         <v>2060</v>
       </c>
       <c r="L871" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M871" s="16" t="s">
         <v>2090</v>
@@ -56813,7 +56813,7 @@
         <v>2060</v>
       </c>
       <c r="L872" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M872" s="16" t="s">
         <v>2090</v>
@@ -56863,7 +56863,7 @@
         <v>2060</v>
       </c>
       <c r="L873" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M873" s="16" t="s">
         <v>2090</v>
@@ -56913,7 +56913,7 @@
         <v>2060</v>
       </c>
       <c r="L874" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M874" s="16" t="s">
         <v>2090</v>
@@ -56963,7 +56963,7 @@
         <v>2061</v>
       </c>
       <c r="L875" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M875" s="16" t="s">
         <v>2090</v>
@@ -57013,7 +57013,7 @@
         <v>2060</v>
       </c>
       <c r="L876" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M876" s="16" t="s">
         <v>2090</v>
@@ -57063,7 +57063,7 @@
         <v>2060</v>
       </c>
       <c r="L877" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M877" s="16" t="s">
         <v>2090</v>
@@ -57113,7 +57113,7 @@
         <v>2060</v>
       </c>
       <c r="L878" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M878" s="16" t="s">
         <v>2090</v>
@@ -57163,7 +57163,7 @@
         <v>2060</v>
       </c>
       <c r="L879" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M879" s="16" t="s">
         <v>2091</v>
@@ -57213,7 +57213,7 @@
         <v>2060</v>
       </c>
       <c r="L880" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M880" s="16" t="s">
         <v>2091</v>
@@ -57263,7 +57263,7 @@
         <v>2060</v>
       </c>
       <c r="L881" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M881" s="16" t="s">
         <v>2091</v>
@@ -57313,7 +57313,7 @@
         <v>2060</v>
       </c>
       <c r="L882" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M882" s="16" t="s">
         <v>2091</v>
@@ -57363,7 +57363,7 @@
         <v>2060</v>
       </c>
       <c r="L883" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M883" s="16" t="s">
         <v>2091</v>
@@ -57413,7 +57413,7 @@
         <v>2060</v>
       </c>
       <c r="L884" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M884" s="16" t="s">
         <v>2091</v>
@@ -57463,7 +57463,7 @@
         <v>2060</v>
       </c>
       <c r="L885" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M885" s="16" t="s">
         <v>2091</v>
@@ -57513,7 +57513,7 @@
         <v>2060</v>
       </c>
       <c r="L886" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M886" s="16" t="s">
         <v>2091</v>
@@ -57563,7 +57563,7 @@
         <v>2060</v>
       </c>
       <c r="L887" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M887" s="16" t="s">
         <v>2091</v>
@@ -57613,7 +57613,7 @@
         <v>2060</v>
       </c>
       <c r="L888" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M888" s="16" t="s">
         <v>2091</v>
@@ -57663,7 +57663,7 @@
         <v>2060</v>
       </c>
       <c r="L889" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M889" s="16" t="s">
         <v>2091</v>
@@ -57713,7 +57713,7 @@
         <v>2060</v>
       </c>
       <c r="L890" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M890" s="16" t="s">
         <v>2091</v>
@@ -57763,7 +57763,7 @@
         <v>2060</v>
       </c>
       <c r="L891" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M891" s="16" t="s">
         <v>2091</v>
@@ -57813,7 +57813,7 @@
         <v>2060</v>
       </c>
       <c r="L892" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M892" s="16" t="s">
         <v>2091</v>
@@ -57863,7 +57863,7 @@
         <v>2060</v>
       </c>
       <c r="L893" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M893" s="16" t="s">
         <v>2091</v>
@@ -57913,7 +57913,7 @@
         <v>2060</v>
       </c>
       <c r="L894" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M894" s="16" t="s">
         <v>2091</v>
@@ -57963,7 +57963,7 @@
         <v>2060</v>
       </c>
       <c r="L895" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M895" s="16" t="s">
         <v>2091</v>
@@ -58013,7 +58013,7 @@
         <v>2060</v>
       </c>
       <c r="L896" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M896" s="16" t="s">
         <v>2091</v>
@@ -58063,7 +58063,7 @@
         <v>2060</v>
       </c>
       <c r="L897" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M897" s="16" t="s">
         <v>2091</v>
@@ -58113,7 +58113,7 @@
         <v>2060</v>
       </c>
       <c r="L898" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M898" s="16" t="s">
         <v>2091</v>
@@ -58163,7 +58163,7 @@
         <v>2060</v>
       </c>
       <c r="L899" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M899" s="16" t="s">
         <v>2091</v>
@@ -58213,7 +58213,7 @@
         <v>2060</v>
       </c>
       <c r="L900" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M900" s="16" t="s">
         <v>2091</v>
@@ -58263,7 +58263,7 @@
         <v>2060</v>
       </c>
       <c r="L901" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M901" s="16" t="s">
         <v>2091</v>
@@ -58313,7 +58313,7 @@
         <v>2060</v>
       </c>
       <c r="L902" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M902" s="16" t="s">
         <v>2091</v>
@@ -58363,7 +58363,7 @@
         <v>2060</v>
       </c>
       <c r="L903" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M903" s="16" t="s">
         <v>2091</v>
@@ -58413,7 +58413,7 @@
         <v>2060</v>
       </c>
       <c r="L904" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M904" s="16" t="s">
         <v>2091</v>
@@ -58463,7 +58463,7 @@
         <v>2060</v>
       </c>
       <c r="L905" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M905" s="16" t="s">
         <v>2091</v>
@@ -58513,7 +58513,7 @@
         <v>2060</v>
       </c>
       <c r="L906" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M906" s="16" t="s">
         <v>2091</v>
@@ -58563,7 +58563,7 @@
         <v>2060</v>
       </c>
       <c r="L907" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M907" s="16" t="s">
         <v>2091</v>
@@ -58613,7 +58613,7 @@
         <v>2060</v>
       </c>
       <c r="L908" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M908" s="16" t="s">
         <v>2091</v>
@@ -58663,7 +58663,7 @@
         <v>2061</v>
       </c>
       <c r="L909" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M909" s="16" t="s">
         <v>2091</v>
@@ -58713,7 +58713,7 @@
         <v>2060</v>
       </c>
       <c r="L910" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M910" s="16" t="s">
         <v>2091</v>
@@ -58763,7 +58763,7 @@
         <v>2060</v>
       </c>
       <c r="L911" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M911" s="16" t="s">
         <v>2091</v>
@@ -58813,7 +58813,7 @@
         <v>2060</v>
       </c>
       <c r="L912" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M912" s="16" t="s">
         <v>2091</v>
@@ -58917,7 +58917,7 @@
         <v>2059</v>
       </c>
       <c r="L914" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M914" s="16" t="s">
         <v>1581</v>
@@ -60525,7 +60525,7 @@
         <v>2063</v>
       </c>
       <c r="L951" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M951" s="3" t="s">
         <v>1627</v>
@@ -60788,7 +60788,7 @@
         <v>2063</v>
       </c>
       <c r="L957" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M957" s="3" t="s">
         <v>1637</v>
@@ -61051,7 +61051,7 @@
         <v>2064</v>
       </c>
       <c r="L963" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M963" s="16" t="s">
         <v>2095</v>
@@ -61101,7 +61101,7 @@
         <v>2065</v>
       </c>
       <c r="L964" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M964" s="16" t="s">
         <v>2095</v>
@@ -61151,7 +61151,7 @@
         <v>2064</v>
       </c>
       <c r="L965" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M965" s="16" t="s">
         <v>2096</v>
@@ -61201,7 +61201,7 @@
         <v>2065</v>
       </c>
       <c r="L966" s="16" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="M966" s="16" t="s">
         <v>2096</v>
